--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\PycharmProjects\NewsAggregator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108302A-1B10-46AA-AA57-F3C0CD79919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82294050-B60D-43FD-8281-23B7114908D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{19D87971-A05E-4B4E-AD4E-1B66734141F7}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{19D87971-A05E-4B4E-AD4E-1B66734141F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Company</t>
   </si>
@@ -76,14 +75,68 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Lithium Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensata </t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Max Articles</t>
+  </si>
+  <si>
+    <t>CCS</t>
+  </si>
+  <si>
     <t>Keyword</t>
+  </si>
+  <si>
+    <t>Additional Keywords</t>
+  </si>
+  <si>
+    <t>Cloud, BMS</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Charge Controller</t>
+  </si>
+  <si>
+    <t>EVCC</t>
+  </si>
+  <si>
+    <t>Fast Charge Junction Box</t>
+  </si>
+  <si>
+    <t>FCJB</t>
+  </si>
+  <si>
+    <t>DC-DC Converter</t>
+  </si>
+  <si>
+    <t>DCDC</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Sales, Battery Management System</t>
+  </si>
+  <si>
+    <t>Battery Management System, BMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +148,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,9 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,75 +502,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8853BAF-DA14-4EEF-8B68-9D3C99AD6D4E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="94.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\PycharmProjects\NewsAggregator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82294050-B60D-43FD-8281-23B7114908D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D50E0A-92CA-4BA0-945E-4FF00C894BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{19D87971-A05E-4B4E-AD4E-1B66734141F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{19D87971-A05E-4B4E-AD4E-1B66734141F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,10 +542,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
